--- a/experiments_v1_20180123/sparsity_test_result.xlsx
+++ b/experiments_v1_20180123/sparsity_test_result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovit\Downloads\kmeans4doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28770" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28770" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="252">
   <si>
     <t>data</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -797,6 +797,10 @@
   </si>
   <si>
     <t>dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dense nnz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +809,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -885,10 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -901,10 +902,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3473,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35:M42"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T42" sqref="P34:T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3497,38 +3501,38 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="X2" s="4" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="9" t="s">
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -3591,25 +3595,25 @@
       <c r="AA3">
         <v>100</v>
       </c>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8" t="s">
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE3" s="7">
         <v>10</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="7">
         <v>20</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AG3" s="7">
         <v>50</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AH3" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
@@ -3628,26 +3632,26 @@
         <v>1.46E-2</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="2">
         <v>0.01</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>2.81828077849828E-3</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>3.9144844773614396E-3</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>7.6431760611448702E-3</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>1.1057011062598101E-2</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="P4" s="2">
@@ -3665,53 +3669,53 @@
       <c r="T4" s="3">
         <v>0.18464269368394701</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W4" s="2">
         <v>0.01</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <f>1-C4/Q4</f>
         <v>0.85507949416101792</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="5">
         <f t="shared" ref="Y4:Y31" si="0">1-D4/R4</f>
         <v>0.88184332751148176</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="5">
         <f t="shared" ref="Z4:Z31" si="1">1-E4/S4</f>
         <v>0.90821913968995649</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="5">
         <f t="shared" ref="AA4:AA31" si="2">1-F4/T4</f>
         <v>0.92092836326905614</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="8">
         <v>0.01</v>
       </c>
-      <c r="AE4" s="8" t="str">
+      <c r="AE4" s="7" t="str">
         <f>C33&amp;" ("&amp;X33&amp;")"</f>
         <v>0.0707 (85.51%)</v>
       </c>
-      <c r="AF4" s="8" t="str">
+      <c r="AF4" s="7" t="str">
         <f t="shared" ref="AF4:AH4" si="3">D33&amp;" ("&amp;Y33&amp;")"</f>
         <v>0.0437 (88.18%)</v>
       </c>
-      <c r="AG4" s="8" t="str">
+      <c r="AG4" s="7" t="str">
         <f t="shared" si="3"/>
         <v>0.0233 (90.82%)</v>
       </c>
-      <c r="AH4" s="8" t="str">
+      <c r="AH4" s="7" t="str">
         <f t="shared" si="3"/>
         <v>0.0146 (92.09%)</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2">
         <v>0.02</v>
       </c>
@@ -3728,24 +3732,24 @@
         <v>9.5399999999999999E-3</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="2">
         <v>0.02</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>4.7770048262510603E-3</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>6.65103881547747E-3</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>1.06496287065143E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>1.6062717058567599E-2</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="2">
         <v>0.02</v>
       </c>
@@ -3761,49 +3765,49 @@
       <c r="T5" s="3">
         <v>0.18032277190646501</v>
       </c>
-      <c r="V5" s="4"/>
+      <c r="V5" s="9"/>
       <c r="W5" s="2">
         <v>0.02</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="5">
         <f t="shared" ref="X5:X31" si="4">1-C5/Q5</f>
         <v>0.88705384766007445</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="5">
         <f t="shared" si="0"/>
         <v>0.91420405123876258</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="5">
         <f t="shared" si="1"/>
         <v>0.93389283785315613</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="5">
         <f t="shared" si="2"/>
         <v>0.94709486827904088</v>
       </c>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="10">
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="8">
         <v>0.02</v>
       </c>
-      <c r="AE5" s="8" t="str">
+      <c r="AE5" s="7" t="str">
         <f t="shared" ref="AE5:AH5" si="5">C34&amp;" ("&amp;X34&amp;")"</f>
         <v>0.0558 (88.71%)</v>
       </c>
-      <c r="AF5" s="8" t="str">
+      <c r="AF5" s="7" t="str">
         <f t="shared" si="5"/>
         <v>0.0314 (91.42%)</v>
       </c>
-      <c r="AG5" s="8" t="str">
+      <c r="AG5" s="7" t="str">
         <f t="shared" si="5"/>
         <v>0.0165 (93.39%)</v>
       </c>
-      <c r="AH5" s="8" t="str">
+      <c r="AH5" s="7" t="str">
         <f t="shared" si="5"/>
         <v>0.00954 (94.71%)</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2">
         <v>0.05</v>
       </c>
@@ -3820,24 +3824,24 @@
         <v>5.5199999999999997E-3</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="2">
         <v>0.05</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>8.7885648525666497E-3</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>1.41977857078635E-2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>1.93725224169621E-2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>2.4568543826379099E-2</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="2">
         <v>0.05</v>
       </c>
@@ -3853,49 +3857,49 @@
       <c r="T6" s="3">
         <v>0.17613973953565701</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="V6" s="9"/>
       <c r="W6" s="2">
         <v>0.05</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="5">
         <f t="shared" si="4"/>
         <v>0.9261164280450811</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="5">
         <f t="shared" si="0"/>
         <v>0.94360675698171226</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="5">
         <f t="shared" si="1"/>
         <v>0.96012585951436824</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="5">
         <f t="shared" si="2"/>
         <v>0.96866124581226287</v>
       </c>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="10">
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="8">
         <v>0.05</v>
       </c>
-      <c r="AE6" s="8" t="str">
+      <c r="AE6" s="7" t="str">
         <f t="shared" ref="AE6:AH6" si="6">C35&amp;" ("&amp;X35&amp;")"</f>
         <v>0.034 (92.61%)</v>
       </c>
-      <c r="AF6" s="8" t="str">
+      <c r="AF6" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0.0222 (94.36%)</v>
       </c>
-      <c r="AG6" s="8" t="str">
+      <c r="AG6" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0.0101 (96.01%)</v>
       </c>
-      <c r="AH6" s="8" t="str">
+      <c r="AH6" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0.00552 (96.87%)</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2">
         <v>0.1</v>
       </c>
@@ -3912,24 +3916,24 @@
         <v>3.5500000000000002E-3</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="2">
         <v>0.1</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>1.5497117748210399E-2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>1.87159115900375E-2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>2.8064210529139801E-2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>3.6948370389373202E-2</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="2">
         <v>0.1</v>
       </c>
@@ -3945,49 +3949,49 @@
       <c r="T7" s="3">
         <v>0.17286593991844801</v>
       </c>
-      <c r="V7" s="4"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="2">
         <v>0.1</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="5">
         <f t="shared" si="4"/>
         <v>0.94936741597010654</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="5">
         <f t="shared" si="0"/>
         <v>0.96196853229236057</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z7" s="5">
         <f t="shared" si="1"/>
         <v>0.97400301785637833</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="5">
         <f t="shared" si="2"/>
         <v>0.97946385504469669</v>
       </c>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="10">
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="8">
         <v>0.1</v>
       </c>
-      <c r="AE7" s="8" t="str">
+      <c r="AE7" s="7" t="str">
         <f t="shared" ref="AE7:AH7" si="7">C36&amp;" ("&amp;X36&amp;")"</f>
         <v>0.0232 (94.94%)</v>
       </c>
-      <c r="AF7" s="8" t="str">
+      <c r="AF7" s="7" t="str">
         <f t="shared" si="7"/>
         <v>0.0136 (96.20%)</v>
       </c>
-      <c r="AG7" s="8" t="str">
+      <c r="AG7" s="7" t="str">
         <f t="shared" si="7"/>
         <v>0.00619 (97.40%)</v>
       </c>
-      <c r="AH7" s="8" t="str">
+      <c r="AH7" s="7" t="str">
         <f t="shared" si="7"/>
         <v>0.00355 (97.95%)</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -4006,26 +4010,26 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="2">
         <v>0.01</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>1.70835790919948E-3</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>2.34082747899948E-3</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>4.2045893998553501E-3</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>6.1346345419992596E-3</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="2">
@@ -4043,53 +4047,53 @@
       <c r="T8" s="3">
         <v>0.18014635516351801</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="W8" s="2">
         <v>0.01</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <f t="shared" si="4"/>
         <v>0.82528929042252885</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="5">
         <f t="shared" si="0"/>
         <v>0.86358767224665267</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="5">
         <f t="shared" si="1"/>
         <v>0.89399976123996017</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="5">
         <f t="shared" si="2"/>
         <v>0.90840780550334743</v>
       </c>
-      <c r="AC8" s="9" t="s">
+      <c r="AC8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="10">
+      <c r="AD8" s="8">
         <v>0.01</v>
       </c>
-      <c r="AE8" s="8" t="str">
+      <c r="AE8" s="7" t="str">
         <f t="shared" ref="AE8:AH8" si="8">C37&amp;" ("&amp;X37&amp;")"</f>
         <v>0.0732 (82.53%)</v>
       </c>
-      <c r="AF8" s="8" t="str">
+      <c r="AF8" s="7" t="str">
         <f t="shared" si="8"/>
         <v>0.0464 (86.36%)</v>
       </c>
-      <c r="AG8" s="8" t="str">
+      <c r="AG8" s="7" t="str">
         <f t="shared" si="8"/>
         <v>0.0266 (89.40%)</v>
       </c>
-      <c r="AH8" s="8" t="str">
+      <c r="AH8" s="7" t="str">
         <f t="shared" si="8"/>
         <v>0.0165 (90.84%)</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2">
         <v>0.02</v>
       </c>
@@ -4106,24 +4110,24 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="2">
         <v>0.02</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>2.96733373369334E-3</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>4.3690999888475303E-3</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>6.2379244329867599E-3</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>1.0307114003636399E-2</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="2">
         <v>0.02</v>
       </c>
@@ -4139,49 +4143,49 @@
       <c r="T9" s="3">
         <v>0.178121723391861</v>
       </c>
-      <c r="V9" s="4"/>
+      <c r="V9" s="9"/>
       <c r="W9" s="2">
         <v>0.02</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <f t="shared" si="4"/>
         <v>0.86878375189536372</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <f t="shared" si="0"/>
         <v>0.89760807930250863</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Z9" s="5">
         <f t="shared" si="1"/>
         <v>0.92097361210289441</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="5">
         <f t="shared" si="2"/>
         <v>0.9348759950268366</v>
       </c>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="10">
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="8">
         <v>0.02</v>
       </c>
-      <c r="AE9" s="8" t="str">
+      <c r="AE9" s="7" t="str">
         <f t="shared" ref="AE9:AH9" si="9">C38&amp;" ("&amp;X38&amp;")"</f>
         <v>0.0568 (86.88%)</v>
       </c>
-      <c r="AF9" s="8" t="str">
+      <c r="AF9" s="7" t="str">
         <f t="shared" si="9"/>
         <v>0.0363 (89.76%)</v>
       </c>
-      <c r="AG9" s="8" t="str">
+      <c r="AG9" s="7" t="str">
         <f t="shared" si="9"/>
         <v>0.0198 (92.10%)</v>
       </c>
-      <c r="AH9" s="8" t="str">
+      <c r="AH9" s="7" t="str">
         <f t="shared" si="9"/>
         <v>0.0116 (93.49%)</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2">
         <v>0.05</v>
       </c>
@@ -4198,24 +4202,24 @@
         <v>7.4700000000000001E-3</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="2">
         <v>0.05</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>6.8288928405749504E-3</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>8.2172674657386008E-3</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>1.2567685785430801E-2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>1.7760408193524601E-2</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="2">
         <v>0.05</v>
       </c>
@@ -4231,49 +4235,49 @@
       <c r="T10" s="3">
         <v>0.17975441041857301</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="9"/>
       <c r="W10" s="2">
         <v>0.05</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <f t="shared" si="4"/>
         <v>0.91372588910394681</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <f t="shared" si="0"/>
         <v>0.93264613561565024</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="5">
         <f t="shared" si="1"/>
         <v>0.94980354589179339</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="5">
         <f t="shared" si="2"/>
         <v>0.95844330059771277</v>
       </c>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="10">
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="8">
         <v>0.05</v>
       </c>
-      <c r="AE10" s="8" t="str">
+      <c r="AE10" s="7" t="str">
         <f t="shared" ref="AE10:AH10" si="10">C39&amp;" ("&amp;X39&amp;")"</f>
         <v>0.0421 (91.37%)</v>
       </c>
-      <c r="AF10" s="8" t="str">
+      <c r="AF10" s="7" t="str">
         <f t="shared" si="10"/>
         <v>0.0243 (93.26%)</v>
       </c>
-      <c r="AG10" s="8" t="str">
+      <c r="AG10" s="7" t="str">
         <f t="shared" si="10"/>
         <v>0.0121 (94.98%)</v>
       </c>
-      <c r="AH10" s="8" t="str">
+      <c r="AH10" s="7" t="str">
         <f t="shared" si="10"/>
         <v>0.00747 (95.84%)</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2">
         <v>0.1</v>
       </c>
@@ -4290,24 +4294,24 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="2">
         <v>0.1</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>9.9798708312643005E-3</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>1.27313614128213E-2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>2.1041154204432401E-2</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>2.6305691857991399E-2</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="2">
         <v>0.1</v>
       </c>
@@ -4323,49 +4327,49 @@
       <c r="T11" s="3">
         <v>0.17809103769659601</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="V11" s="9"/>
       <c r="W11" s="2">
         <v>0.1</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="5">
         <f t="shared" si="4"/>
         <v>0.93847961363342436</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="5">
         <f t="shared" si="0"/>
         <v>0.95269692532942896</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="Z11" s="5">
         <f t="shared" si="1"/>
         <v>0.96611364584004988</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AA11" s="5">
         <f t="shared" si="2"/>
         <v>0.97304749266396273</v>
       </c>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="10">
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="8">
         <v>0.1</v>
       </c>
-      <c r="AE11" s="8" t="str">
+      <c r="AE11" s="7" t="str">
         <f t="shared" ref="AE11:AH11" si="11">C40&amp;" ("&amp;X40&amp;")"</f>
         <v>0.0287 (93.85%)</v>
       </c>
-      <c r="AF11" s="8" t="str">
+      <c r="AF11" s="7" t="str">
         <f t="shared" si="11"/>
         <v>0.0164 (95.27%)</v>
       </c>
-      <c r="AG11" s="8" t="str">
+      <c r="AG11" s="7" t="str">
         <f t="shared" si="11"/>
         <v>0.0082 (96.61%)</v>
       </c>
-      <c r="AH11" s="8" t="str">
+      <c r="AH11" s="7" t="str">
         <f t="shared" si="11"/>
         <v>0.0048 (97.30%)</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
@@ -4384,26 +4388,26 @@
         <v>2.75E-2</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="2">
         <v>0.01</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>1.2877487673442899E-3</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>1.6246390927429401E-3</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>3.4122840045643201E-3</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>5.1938192956822397E-3</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="P12" s="2">
@@ -4421,53 +4425,53 @@
       <c r="T12" s="3">
         <v>0.29094127069984099</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="V12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="W12" s="2">
         <v>0.01</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="5">
         <f t="shared" si="4"/>
         <v>0.79882760560674548</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="5">
         <f t="shared" si="0"/>
         <v>0.83775594757545047</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="Z12" s="5">
         <f t="shared" si="1"/>
         <v>0.88705827067669163</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="5">
         <f t="shared" si="2"/>
         <v>0.90547920570412554</v>
       </c>
-      <c r="AC12" s="9" t="s">
+      <c r="AC12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD12" s="10">
+      <c r="AD12" s="8">
         <v>0.01</v>
       </c>
-      <c r="AE12" s="8" t="str">
+      <c r="AE12" s="7" t="str">
         <f t="shared" ref="AE12:AH12" si="12">C41&amp;" ("&amp;X41&amp;")"</f>
         <v>0.122 (79.88%)</v>
       </c>
-      <c r="AF12" s="8" t="str">
+      <c r="AF12" s="7" t="str">
         <f t="shared" si="12"/>
         <v>0.0786 (83.78%)</v>
       </c>
-      <c r="AG12" s="8" t="str">
+      <c r="AG12" s="7" t="str">
         <f t="shared" si="12"/>
         <v>0.043 (88.71%)</v>
       </c>
-      <c r="AH12" s="8" t="str">
+      <c r="AH12" s="7" t="str">
         <f t="shared" si="12"/>
         <v>0.0275 (90.55%)</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2">
         <v>0.02</v>
       </c>
@@ -4484,24 +4488,24 @@
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="2">
         <v>0.02</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>1.87776483908241E-3</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>2.96060601996102E-3</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>4.68672538292791E-3</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>7.3001537745955502E-3</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="2">
         <v>0.02</v>
       </c>
@@ -4517,49 +4521,49 @@
       <c r="T13" s="3">
         <v>0.28148009070483399</v>
       </c>
-      <c r="V13" s="4"/>
+      <c r="V13" s="9"/>
       <c r="W13" s="2">
         <v>0.02</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="5">
         <f t="shared" si="4"/>
         <v>0.83517712634341179</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="5">
         <f t="shared" si="0"/>
         <v>0.88059836665979119</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="Z13" s="5">
         <f t="shared" si="1"/>
         <v>0.91685127948989942</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="5">
         <f t="shared" si="2"/>
         <v>0.9335654612261397</v>
       </c>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="10">
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="8">
         <v>0.02</v>
       </c>
-      <c r="AE13" s="8" t="str">
+      <c r="AE13" s="7" t="str">
         <f t="shared" ref="AE13:AH13" si="13">C42&amp;" ("&amp;X42&amp;")"</f>
         <v>0.0916 (83.52%)</v>
       </c>
-      <c r="AF13" s="8" t="str">
+      <c r="AF13" s="7" t="str">
         <f t="shared" si="13"/>
         <v>0.0557 (88.06%)</v>
       </c>
-      <c r="AG13" s="8" t="str">
+      <c r="AG13" s="7" t="str">
         <f t="shared" si="13"/>
         <v>0.0302 (91.69%)</v>
       </c>
-      <c r="AH13" s="8" t="str">
+      <c r="AH13" s="7" t="str">
         <f t="shared" si="13"/>
         <v>0.0187 (93.36%)</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2">
         <v>0.05</v>
       </c>
@@ -4576,24 +4580,24 @@
         <v>1.18E-2</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="2">
         <v>0.05</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>3.8469946477200298E-3</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>5.3816574115835101E-3</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>1.10245504162126E-2</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>1.3494880378848899E-2</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="2">
         <v>0.05</v>
       </c>
@@ -4609,49 +4613,49 @@
       <c r="T14" s="3">
         <v>0.28145949488225003</v>
       </c>
-      <c r="V14" s="4"/>
+      <c r="V14" s="9"/>
       <c r="W14" s="2">
         <v>0.05</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="5">
         <f t="shared" si="4"/>
         <v>0.89699984950228251</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="5">
         <f t="shared" si="0"/>
         <v>0.92056383479150217</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="5">
         <f t="shared" si="1"/>
         <v>0.94695459965872331</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="5">
         <f t="shared" si="2"/>
         <v>0.95807567264718996</v>
       </c>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="10">
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="8">
         <v>0.05</v>
       </c>
-      <c r="AE14" s="8" t="str">
+      <c r="AE14" s="7" t="str">
         <f t="shared" ref="AE14:AH14" si="14">C43&amp;" ("&amp;X43&amp;")"</f>
         <v>0.0598 (89.70%)</v>
       </c>
-      <c r="AF14" s="8" t="str">
+      <c r="AF14" s="7" t="str">
         <f t="shared" si="14"/>
         <v>0.0368 (92.06%)</v>
       </c>
-      <c r="AG14" s="8" t="str">
+      <c r="AG14" s="7" t="str">
         <f t="shared" si="14"/>
         <v>0.0201 (94.70%)</v>
       </c>
-      <c r="AH14" s="8" t="str">
+      <c r="AH14" s="7" t="str">
         <f t="shared" si="14"/>
         <v>0.0118 (95.81%)</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2">
         <v>0.1</v>
       </c>
@@ -4668,24 +4672,24 @@
         <v>7.9500000000000005E-3</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="2">
         <v>0.1</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>6.2393827881579399E-3</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>9.6285758928266098E-3</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>1.43930166558323E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>1.9337822664219202E-2</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="2">
         <v>0.1</v>
       </c>
@@ -4701,49 +4705,49 @@
       <c r="T15" s="3">
         <v>0.27325330781392998</v>
       </c>
-      <c r="V15" s="4"/>
+      <c r="V15" s="9"/>
       <c r="W15" s="2">
         <v>0.1</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <f t="shared" si="4"/>
         <v>0.91520464741396346</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="5">
         <f t="shared" si="0"/>
         <v>0.94516044058131632</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="Z15" s="5">
         <f t="shared" si="1"/>
         <v>0.96329580920762825</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="5">
         <f t="shared" si="2"/>
         <v>0.97090611614695077</v>
       </c>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="10">
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="8">
         <v>0.1</v>
       </c>
-      <c r="AE15" s="8" t="str">
+      <c r="AE15" s="7" t="str">
         <f t="shared" ref="AE15:AH15" si="15">C44&amp;" ("&amp;X44&amp;")"</f>
         <v>0.0464 (91.52%)</v>
       </c>
-      <c r="AF15" s="8" t="str">
+      <c r="AF15" s="7" t="str">
         <f t="shared" si="15"/>
         <v>0.028 (94.52%)</v>
       </c>
-      <c r="AG15" s="8" t="str">
+      <c r="AG15" s="7" t="str">
         <f t="shared" si="15"/>
         <v>0.0134 (96.33%)</v>
       </c>
-      <c r="AH15" s="8" t="str">
+      <c r="AH15" s="7" t="str">
         <f t="shared" si="15"/>
         <v>0.00795 (97.09%)</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="2">
@@ -4762,26 +4766,26 @@
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="2">
         <v>0.01</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>3.01397738205144E-4</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>7.4353994603852897E-4</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>1.2265363089836599E-3</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>1.6639362727660699E-3</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="P16" s="2">
@@ -4799,53 +4803,53 @@
       <c r="T16" s="3">
         <v>0.456760863495422</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="W16" s="2">
         <v>0.01</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="5">
         <f t="shared" si="4"/>
         <v>0.84716832047041513</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="Y16" s="5">
         <f t="shared" si="0"/>
         <v>0.87050591644605313</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="Z16" s="5">
         <f t="shared" si="1"/>
         <v>0.88875542251416917</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="5">
         <f t="shared" si="2"/>
         <v>0.89907191337013037</v>
       </c>
-      <c r="AC16" s="9" t="s">
+      <c r="AC16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AD16" s="10">
+      <c r="AD16" s="8">
         <v>0.01</v>
       </c>
-      <c r="AE16" s="8" t="str">
+      <c r="AE16" s="7" t="str">
         <f t="shared" ref="AE16:AH16" si="16">C45&amp;" ("&amp;X45&amp;")"</f>
         <v>0.132 (84.72%)</v>
       </c>
-      <c r="AF16" s="8" t="str">
+      <c r="AF16" s="7" t="str">
         <f t="shared" si="16"/>
         <v>0.0919 (87.05%)</v>
       </c>
-      <c r="AG16" s="8" t="str">
+      <c r="AG16" s="7" t="str">
         <f t="shared" si="16"/>
         <v>0.0627 (88.88%)</v>
       </c>
-      <c r="AH16" s="8" t="str">
+      <c r="AH16" s="7" t="str">
         <f t="shared" si="16"/>
         <v>0.0461 (89.91%)</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2">
         <v>0.02</v>
       </c>
@@ -4862,24 +4866,24 @@
         <v>3.5700000000000003E-2</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="2">
         <v>0.02</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>3.2887905527565397E-4</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>1.19967040389432E-3</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>1.72039234215259E-3</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>2.2788444545418598E-3</v>
       </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="2">
         <v>0.02</v>
       </c>
@@ -4895,49 +4899,49 @@
       <c r="T17" s="3">
         <v>0.46498817028905598</v>
       </c>
-      <c r="V17" s="4"/>
+      <c r="V17" s="9"/>
       <c r="W17" s="2">
         <v>0.02</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="5">
         <f t="shared" si="4"/>
         <v>0.87925602357651322</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Y17" s="5">
         <f t="shared" si="0"/>
         <v>0.89767417381497561</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="Z17" s="5">
         <f t="shared" si="1"/>
         <v>0.91547934830548472</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="5">
         <f t="shared" si="2"/>
         <v>0.92322385324812162</v>
       </c>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="10">
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="8">
         <v>0.02</v>
       </c>
-      <c r="AE17" s="8" t="str">
+      <c r="AE17" s="7" t="str">
         <f t="shared" ref="AE17:AH17" si="17">C46&amp;" ("&amp;X46&amp;")"</f>
         <v>0.11 (87.93%)</v>
       </c>
-      <c r="AF17" s="8" t="str">
+      <c r="AF17" s="7" t="str">
         <f t="shared" si="17"/>
         <v>0.0682 (89.77%)</v>
       </c>
-      <c r="AG17" s="8" t="str">
+      <c r="AG17" s="7" t="str">
         <f t="shared" si="17"/>
         <v>0.0481 (91.55%)</v>
       </c>
-      <c r="AH17" s="8" t="str">
+      <c r="AH17" s="7" t="str">
         <f t="shared" si="17"/>
         <v>0.0357 (92.32%)</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2">
         <v>0.05</v>
       </c>
@@ -4954,24 +4958,24 @@
         <v>2.29E-2</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="2">
         <v>0.05</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>1.0290536256335301E-3</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>1.7311657953514401E-3</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>3.1132289029954098E-3</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>4.3656870921625198E-3</v>
       </c>
       <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="2">
         <v>0.05</v>
       </c>
@@ -4987,49 +4991,49 @@
       <c r="T18" s="3">
         <v>0.44662963452805998</v>
       </c>
-      <c r="V18" s="4"/>
+      <c r="V18" s="9"/>
       <c r="W18" s="2">
         <v>0.05</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="5">
         <f t="shared" si="4"/>
         <v>0.91665149398546508</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="5">
         <f t="shared" si="0"/>
         <v>0.92924603220538682</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="Z18" s="5">
         <f t="shared" si="1"/>
         <v>0.9417616899420661</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="5">
         <f t="shared" si="2"/>
         <v>0.94872709236099451</v>
       </c>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="10">
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="8">
         <v>0.05</v>
       </c>
-      <c r="AE18" s="8" t="str">
+      <c r="AE18" s="7" t="str">
         <f t="shared" ref="AE18:AH18" si="18">C47&amp;" ("&amp;X47&amp;")"</f>
         <v>0.0676 (91.67%)</v>
       </c>
-      <c r="AF18" s="8" t="str">
+      <c r="AF18" s="7" t="str">
         <f t="shared" si="18"/>
         <v>0.0503 (92.92%)</v>
       </c>
-      <c r="AG18" s="8" t="str">
+      <c r="AG18" s="7" t="str">
         <f t="shared" si="18"/>
         <v>0.0326 (94.18%)</v>
       </c>
-      <c r="AH18" s="8" t="str">
+      <c r="AH18" s="7" t="str">
         <f t="shared" si="18"/>
         <v>0.0229 (94.87%)</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2">
         <v>0.1</v>
       </c>
@@ -5046,24 +5050,24 @@
         <v>1.6E-2</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="2">
         <v>0.1</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>1.56139180200638E-3</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>3.07605575908345E-3</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>5.6035736469591899E-3</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>7.7074917713077897E-3</v>
       </c>
       <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="2">
         <v>0.1</v>
       </c>
@@ -5079,49 +5083,49 @@
       <c r="T19" s="3">
         <v>0.430286852121265</v>
       </c>
-      <c r="V19" s="4"/>
+      <c r="V19" s="9"/>
       <c r="W19" s="2">
         <v>0.1</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <f t="shared" si="4"/>
         <v>0.93568559385845718</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="5">
         <f t="shared" si="0"/>
         <v>0.94677364913813478</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="5">
         <f t="shared" si="1"/>
         <v>0.95761503829625161</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="5">
         <f t="shared" si="2"/>
         <v>0.96281550337612731</v>
       </c>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="10">
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="8">
         <v>0.1</v>
       </c>
-      <c r="AE19" s="8" t="str">
+      <c r="AE19" s="7" t="str">
         <f t="shared" ref="AE19:AH19" si="19">C48&amp;" ("&amp;X48&amp;")"</f>
         <v>0.0546 (93.57%)</v>
       </c>
-      <c r="AF19" s="8" t="str">
+      <c r="AF19" s="7" t="str">
         <f t="shared" si="19"/>
         <v>0.0359 (94.68%)</v>
       </c>
-      <c r="AG19" s="8" t="str">
+      <c r="AG19" s="7" t="str">
         <f t="shared" si="19"/>
         <v>0.0227 (95.76%)</v>
       </c>
-      <c r="AH19" s="8" t="str">
+      <c r="AH19" s="7" t="str">
         <f t="shared" si="19"/>
         <v>0.016 (96.28%)</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="2">
@@ -5140,26 +5144,26 @@
         <v>6.3E-2</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="2">
         <v>0.01</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>1.4854724219429599E-4</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>2.8866228543253299E-4</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>4.4043404315944099E-4</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>7.5391271027211199E-4</v>
       </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="P20" s="2">
@@ -5177,53 +5181,53 @@
       <c r="T20" s="3">
         <v>0.20550427639935601</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="V20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="W20" s="2">
         <v>0.01</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="5">
         <f t="shared" si="4"/>
         <v>0.58528533801580296</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="5">
         <f t="shared" si="0"/>
         <v>0.62352161702035336</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="5">
         <f t="shared" si="1"/>
         <v>0.66582978941599746</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="5">
         <f t="shared" si="2"/>
         <v>0.6934370364265694</v>
       </c>
-      <c r="AC20" s="9" t="s">
+      <c r="AC20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AD20" s="10">
+      <c r="AD20" s="8">
         <v>0.01</v>
       </c>
-      <c r="AE20" s="8" t="str">
+      <c r="AE20" s="7" t="str">
         <f t="shared" ref="AE20:AH20" si="20">C49&amp;" ("&amp;X49&amp;")"</f>
         <v>0.193 (58.53%)</v>
       </c>
-      <c r="AF20" s="8" t="str">
+      <c r="AF20" s="7" t="str">
         <f t="shared" si="20"/>
         <v>0.147 (62.35%)</v>
       </c>
-      <c r="AG20" s="8" t="str">
+      <c r="AG20" s="7" t="str">
         <f t="shared" si="20"/>
         <v>0.0883 (66.58%)</v>
       </c>
-      <c r="AH20" s="8" t="str">
+      <c r="AH20" s="7" t="str">
         <f t="shared" si="20"/>
         <v>0.063 (69.34%)</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2">
         <v>0.02</v>
       </c>
@@ -5240,24 +5244,24 @@
         <v>5.11E-2</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="2">
         <v>0.02</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>2.7301477848963303E-4</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>4.7898273769296198E-4</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>8.2604501683173097E-4</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>1.3652769114360799E-3</v>
       </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="2">
         <v>0.02</v>
       </c>
@@ -5273,49 +5277,49 @@
       <c r="T21" s="3">
         <v>0.20771530188838999</v>
       </c>
-      <c r="V21" s="4"/>
+      <c r="V21" s="9"/>
       <c r="W21" s="2">
         <v>0.02</v>
       </c>
-      <c r="X21" s="6">
+      <c r="X21" s="5">
         <f t="shared" si="4"/>
         <v>0.64852798290354263</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="5">
         <f t="shared" si="0"/>
         <v>0.68752461113964092</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="Z21" s="5">
         <f t="shared" si="1"/>
         <v>0.72410028042624786</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AA21" s="5">
         <f t="shared" si="2"/>
         <v>0.75399019939581935</v>
       </c>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="10">
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="8">
         <v>0.02</v>
       </c>
-      <c r="AE21" s="8" t="str">
+      <c r="AE21" s="7" t="str">
         <f t="shared" ref="AE21:AH21" si="21">C50&amp;" ("&amp;X50&amp;")"</f>
         <v>0.172 (64.85%)</v>
       </c>
-      <c r="AF21" s="8" t="str">
+      <c r="AF21" s="7" t="str">
         <f t="shared" si="21"/>
         <v>0.114 (68.75%)</v>
       </c>
-      <c r="AG21" s="8" t="str">
+      <c r="AG21" s="7" t="str">
         <f t="shared" si="21"/>
         <v>0.0729 (72.41%)</v>
       </c>
-      <c r="AH21" s="8" t="str">
+      <c r="AH21" s="7" t="str">
         <f t="shared" si="21"/>
         <v>0.0511 (75.40%)</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2">
         <v>0.05</v>
       </c>
@@ -5332,24 +5336,24 @@
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="2">
         <v>0.05</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>5.8899541663172102E-4</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>1.04047328868734E-3</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>1.79493608967416E-3</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <v>2.7699056830120701E-3</v>
       </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="2">
         <v>0.05</v>
       </c>
@@ -5365,49 +5369,49 @@
       <c r="T22" s="3">
         <v>0.207250825641459</v>
       </c>
-      <c r="V22" s="4"/>
+      <c r="V22" s="9"/>
       <c r="W22" s="2">
         <v>0.05</v>
       </c>
-      <c r="X22" s="6">
+      <c r="X22" s="5">
         <f t="shared" si="4"/>
         <v>0.72414642484094538</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="5">
         <f t="shared" si="0"/>
         <v>0.75359105859322661</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="Z22" s="5">
         <f t="shared" si="1"/>
         <v>0.79193443604902114</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="5">
         <f t="shared" si="2"/>
         <v>0.81954233531160225</v>
       </c>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="10">
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="8">
         <v>0.05</v>
       </c>
-      <c r="AE22" s="8" t="str">
+      <c r="AE22" s="7" t="str">
         <f t="shared" ref="AE22:AH22" si="22">C51&amp;" ("&amp;X51&amp;")"</f>
         <v>0.123 (72.41%)</v>
       </c>
-      <c r="AF22" s="8" t="str">
+      <c r="AF22" s="7" t="str">
         <f t="shared" si="22"/>
         <v>0.0954 (75.36%)</v>
       </c>
-      <c r="AG22" s="8" t="str">
+      <c r="AG22" s="7" t="str">
         <f t="shared" si="22"/>
         <v>0.0553 (79.19%)</v>
       </c>
-      <c r="AH22" s="8" t="str">
+      <c r="AH22" s="7" t="str">
         <f t="shared" si="22"/>
         <v>0.0374 (81.95%)</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2">
         <v>0.1</v>
       </c>
@@ -5424,24 +5428,24 @@
         <v>2.8299999999999999E-2</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="2">
         <v>0.1</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>1.1023290889089099E-3</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>1.8541343315501E-3</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>2.96049485990113E-3</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <v>4.9889854647388399E-3</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="2">
         <v>0.1</v>
       </c>
@@ -5457,49 +5461,49 @@
       <c r="T23" s="3">
         <v>0.20651409941569901</v>
       </c>
-      <c r="V23" s="4"/>
+      <c r="V23" s="9"/>
       <c r="W23" s="2">
         <v>0.1</v>
       </c>
-      <c r="X23" s="6">
+      <c r="X23" s="5">
         <f t="shared" si="4"/>
         <v>0.7679065794790787</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="Y23" s="5">
         <f t="shared" si="0"/>
         <v>0.80335059834164035</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="Z23" s="5">
         <f t="shared" si="1"/>
         <v>0.83487412044668785</v>
       </c>
-      <c r="AA23" s="6">
+      <c r="AA23" s="5">
         <f t="shared" si="2"/>
         <v>0.86296335175142691</v>
       </c>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="10">
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="8">
         <v>0.1</v>
       </c>
-      <c r="AE23" s="8" t="str">
+      <c r="AE23" s="7" t="str">
         <f t="shared" ref="AE23:AH23" si="23">C52&amp;" ("&amp;X52&amp;")"</f>
         <v>0.107 (76.79%)</v>
       </c>
-      <c r="AF23" s="8" t="str">
+      <c r="AF23" s="7" t="str">
         <f t="shared" si="23"/>
         <v>0.0725 (80.34%)</v>
       </c>
-      <c r="AG23" s="8" t="str">
+      <c r="AG23" s="7" t="str">
         <f t="shared" si="23"/>
         <v>0.0436 (83.49%)</v>
       </c>
-      <c r="AH23" s="8" t="str">
+      <c r="AH23" s="7" t="str">
         <f t="shared" si="23"/>
         <v>0.0283 (86.30%)</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2">
@@ -5518,26 +5522,26 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="2">
         <v>0.01</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>2.46013189056959E-4</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>5.9706671732838099E-4</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>1.29426640541595E-3</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <v>2.5261836038358802E-3</v>
       </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="2">
@@ -5555,53 +5559,53 @@
       <c r="T24" s="3">
         <v>3.9174551660038699E-2</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="V24" s="9" t="s">
         <v>11</v>
       </c>
       <c r="W24" s="2">
         <v>0.01</v>
       </c>
-      <c r="X24" s="6">
+      <c r="X24" s="5">
         <f t="shared" si="4"/>
         <v>0.71625918695780488</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="5">
         <f t="shared" si="0"/>
         <v>0.71681018826610543</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="Z24" s="5">
         <f t="shared" si="1"/>
         <v>0.7039968243867325</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA24" s="5">
         <f t="shared" si="2"/>
         <v>0.71154743267867593</v>
       </c>
-      <c r="AC24" s="9" t="s">
+      <c r="AC24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AD24" s="10">
+      <c r="AD24" s="8">
         <v>0.01</v>
       </c>
-      <c r="AE24" s="8" t="str">
+      <c r="AE24" s="7" t="str">
         <f t="shared" ref="AE24:AH24" si="24">C53&amp;" ("&amp;X53&amp;")"</f>
         <v>0.0227 (71.63%)</v>
       </c>
-      <c r="AF24" s="8" t="str">
+      <c r="AF24" s="7" t="str">
         <f t="shared" si="24"/>
         <v>0.0201 (71.68%)</v>
       </c>
-      <c r="AG24" s="8" t="str">
+      <c r="AG24" s="7" t="str">
         <f t="shared" si="24"/>
         <v>0.0146 (70.40%)</v>
       </c>
-      <c r="AH24" s="8" t="str">
+      <c r="AH24" s="7" t="str">
         <f t="shared" si="24"/>
         <v>0.0113 (71.15%)</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2">
         <v>0.02</v>
       </c>
@@ -5618,24 +5622,24 @@
         <v>8.6499999999999997E-3</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="2">
         <v>0.02</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>6.9558274760431703E-4</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <v>1.18473910731224E-3</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>2.3302521823553501E-3</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <v>4.56615172393968E-3</v>
       </c>
       <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="2">
         <v>0.02</v>
       </c>
@@ -5651,49 +5655,49 @@
       <c r="T25" s="3">
         <v>3.7130395697155302E-2</v>
       </c>
-      <c r="V25" s="4"/>
+      <c r="V25" s="9"/>
       <c r="W25" s="2">
         <v>0.02</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="5">
         <f t="shared" si="4"/>
         <v>0.75187412963364408</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="5">
         <f t="shared" si="0"/>
         <v>0.76074435036989085</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="Z25" s="5">
         <f t="shared" si="1"/>
         <v>0.76449565690811438</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AA25" s="5">
         <f t="shared" si="2"/>
         <v>0.76703722549709563</v>
       </c>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="10">
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="8">
         <v>0.02</v>
       </c>
-      <c r="AE25" s="8" t="str">
+      <c r="AE25" s="7" t="str">
         <f t="shared" ref="AE25:AH25" si="25">C54&amp;" ("&amp;X54&amp;")"</f>
         <v>0.0218 (75.19%)</v>
       </c>
-      <c r="AF25" s="8" t="str">
+      <c r="AF25" s="7" t="str">
         <f t="shared" si="25"/>
         <v>0.0162 (76.07%)</v>
       </c>
-      <c r="AG25" s="8" t="str">
+      <c r="AG25" s="7" t="str">
         <f t="shared" si="25"/>
         <v>0.0116 (76.45%)</v>
       </c>
-      <c r="AH25" s="8" t="str">
+      <c r="AH25" s="7" t="str">
         <f t="shared" si="25"/>
         <v>0.00865 (76.70%)</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2">
         <v>0.05</v>
       </c>
@@ -5710,24 +5714,24 @@
         <v>6.13E-3</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="2">
         <v>0.05</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>1.09190519980021E-3</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>2.1635163368980701E-3</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>4.4079631445851199E-3</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <v>9.0128413874103006E-3</v>
       </c>
       <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="2">
         <v>0.05</v>
       </c>
@@ -5743,49 +5747,49 @@
       <c r="T26" s="3">
         <v>3.6782389419634E-2</v>
       </c>
-      <c r="V26" s="4"/>
+      <c r="V26" s="9"/>
       <c r="W26" s="2">
         <v>0.05</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="5">
         <f t="shared" si="4"/>
         <v>0.7969273525382341</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="5">
         <f t="shared" si="0"/>
         <v>0.81168004190198562</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="Z26" s="5">
         <f t="shared" si="1"/>
         <v>0.81922293305841554</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AA26" s="5">
         <f t="shared" si="2"/>
         <v>0.83334416016138746</v>
       </c>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="10">
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="8">
         <v>0.05</v>
       </c>
-      <c r="AE26" s="8" t="str">
+      <c r="AE26" s="7" t="str">
         <f t="shared" ref="AE26:AH26" si="26">C55&amp;" ("&amp;X55&amp;")"</f>
         <v>0.0166 (79.69%)</v>
       </c>
-      <c r="AF26" s="8" t="str">
+      <c r="AF26" s="7" t="str">
         <f t="shared" si="26"/>
         <v>0.0126 (81.17%)</v>
       </c>
-      <c r="AG26" s="8" t="str">
+      <c r="AG26" s="7" t="str">
         <f t="shared" si="26"/>
         <v>0.00871 (81.92%)</v>
       </c>
-      <c r="AH26" s="8" t="str">
+      <c r="AH26" s="7" t="str">
         <f t="shared" si="26"/>
         <v>0.00613 (83.33%)</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2">
         <v>0.1</v>
       </c>
@@ -5802,24 +5806,24 @@
         <v>4.5300000000000002E-3</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="2">
         <v>0.1</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>2.2691267927486699E-3</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <v>3.8550959401923201E-3</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>8.2717935041853492E-3</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <v>1.75174914546125E-2</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="O27" s="4"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="2">
         <v>0.1</v>
       </c>
@@ -5835,49 +5839,49 @@
       <c r="T27" s="3">
         <v>3.5885328579482199E-2</v>
       </c>
-      <c r="V27" s="4"/>
+      <c r="V27" s="9"/>
       <c r="W27" s="2">
         <v>0.1</v>
       </c>
-      <c r="X27" s="6">
+      <c r="X27" s="5">
         <f t="shared" si="4"/>
         <v>0.83677597772212187</v>
       </c>
-      <c r="Y27" s="6">
+      <c r="Y27" s="5">
         <f t="shared" si="0"/>
         <v>0.84127837273200701</v>
       </c>
-      <c r="Z27" s="6">
+      <c r="Z27" s="5">
         <f t="shared" si="1"/>
         <v>0.86366500186097683</v>
       </c>
-      <c r="AA27" s="6">
+      <c r="AA27" s="5">
         <f t="shared" si="2"/>
         <v>0.87376456676531378</v>
       </c>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="10">
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="8">
         <v>0.1</v>
       </c>
-      <c r="AE27" s="8" t="str">
+      <c r="AE27" s="7" t="str">
         <f t="shared" ref="AE27:AH27" si="27">C56&amp;" ("&amp;X56&amp;")"</f>
         <v>0.0142 (83.68%)</v>
       </c>
-      <c r="AF27" s="8" t="str">
+      <c r="AF27" s="7" t="str">
         <f t="shared" si="27"/>
         <v>0.0101 (84.13%)</v>
       </c>
-      <c r="AG27" s="8" t="str">
+      <c r="AG27" s="7" t="str">
         <f t="shared" si="27"/>
         <v>0.00653 (86.37%)</v>
       </c>
-      <c r="AH27" s="8" t="str">
+      <c r="AH27" s="7" t="str">
         <f t="shared" si="27"/>
         <v>0.00453 (87.38%)</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="2">
@@ -5896,26 +5900,26 @@
         <v>0.151</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I28" s="2">
         <v>0.01</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>3.7516364387635203E-5</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="4">
         <v>6.2207211145920405E-5</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>1.2356995531007399E-4</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <v>2.2087671097591099E-4</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="P28" s="2">
@@ -5933,53 +5937,53 @@
       <c r="T28" s="3">
         <v>0.74158879876683603</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="V28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="W28" s="2">
         <v>0.01</v>
       </c>
-      <c r="X28" s="6">
+      <c r="X28" s="5">
         <f t="shared" si="4"/>
         <v>0.60355511118718963</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="Y28" s="5">
         <f t="shared" si="0"/>
         <v>0.69176448080386277</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="Z28" s="5">
         <f t="shared" si="1"/>
         <v>0.76327819774781824</v>
       </c>
-      <c r="AA28" s="6">
+      <c r="AA28" s="5">
         <f t="shared" si="2"/>
         <v>0.79638311655853888</v>
       </c>
-      <c r="AC28" s="9" t="s">
+      <c r="AC28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD28" s="10">
+      <c r="AD28" s="8">
         <v>0.01</v>
       </c>
-      <c r="AE28" s="8" t="str">
+      <c r="AE28" s="7" t="str">
         <f t="shared" ref="AE28:AH28" si="28">C57&amp;" ("&amp;X57&amp;")"</f>
         <v>0.374 (60.36%)</v>
       </c>
-      <c r="AF28" s="8" t="str">
+      <c r="AF28" s="7" t="str">
         <f t="shared" si="28"/>
         <v>0.272 (69.18%)</v>
       </c>
-      <c r="AG28" s="8" t="str">
+      <c r="AG28" s="7" t="str">
         <f t="shared" si="28"/>
         <v>0.192 (76.33%)</v>
       </c>
-      <c r="AH28" s="8" t="str">
+      <c r="AH28" s="7" t="str">
         <f t="shared" si="28"/>
         <v>0.151 (79.64%)</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2">
         <v>0.02</v>
       </c>
@@ -5996,24 +6000,24 @@
         <v>0.121</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="2">
         <v>0.02</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>5.9207100093616701E-5</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
         <v>1.09540827407683E-4</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>1.9821171772098101E-4</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <v>3.6229849119161201E-4</v>
       </c>
       <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
+      <c r="O29" s="9"/>
       <c r="P29" s="2">
         <v>0.02</v>
       </c>
@@ -6029,49 +6033,49 @@
       <c r="T29" s="3">
         <v>0.74182625610158903</v>
       </c>
-      <c r="V29" s="4"/>
+      <c r="V29" s="9"/>
       <c r="W29" s="2">
         <v>0.02</v>
       </c>
-      <c r="X29" s="6">
+      <c r="X29" s="5">
         <f t="shared" si="4"/>
         <v>0.67783227204985763</v>
       </c>
-      <c r="Y29" s="6">
+      <c r="Y29" s="5">
         <f t="shared" si="0"/>
         <v>0.74282827346465807</v>
       </c>
-      <c r="Z29" s="6">
+      <c r="Z29" s="5">
         <f t="shared" si="1"/>
         <v>0.80627224143237963</v>
       </c>
-      <c r="AA29" s="6">
+      <c r="AA29" s="5">
         <f t="shared" si="2"/>
         <v>0.83688903027526473</v>
       </c>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="10">
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="8">
         <v>0.02</v>
       </c>
-      <c r="AE29" s="8" t="str">
+      <c r="AE29" s="7" t="str">
         <f t="shared" ref="AE29:AH29" si="29">C58&amp;" ("&amp;X58&amp;")"</f>
         <v>0.288 (67.78%)</v>
       </c>
-      <c r="AF29" s="8" t="str">
+      <c r="AF29" s="7" t="str">
         <f t="shared" si="29"/>
         <v>0.224 (74.28%)</v>
       </c>
-      <c r="AG29" s="8" t="str">
+      <c r="AG29" s="7" t="str">
         <f t="shared" si="29"/>
         <v>0.158 (80.63%)</v>
       </c>
-      <c r="AH29" s="8" t="str">
+      <c r="AH29" s="7" t="str">
         <f t="shared" si="29"/>
         <v>0.121 (83.69%)</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2">
         <v>0.05</v>
       </c>
@@ -6088,24 +6092,24 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="2">
         <v>0.05</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>1.4373827928146899E-4</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>2.10437620044523E-4</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>4.3858235585385303E-4</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="4">
         <v>7.1859307646412096E-4</v>
       </c>
       <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="2">
         <v>0.05</v>
       </c>
@@ -6121,49 +6125,49 @@
       <c r="T30" s="3">
         <v>0.73798730135427704</v>
       </c>
-      <c r="V30" s="4"/>
+      <c r="V30" s="9"/>
       <c r="W30" s="2">
         <v>0.05</v>
       </c>
-      <c r="X30" s="6">
+      <c r="X30" s="5">
         <f t="shared" si="4"/>
         <v>0.75200151270415094</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Y30" s="5">
         <f t="shared" si="0"/>
         <v>0.80257219609094366</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="Z30" s="5">
         <f t="shared" si="1"/>
         <v>0.85422363035377713</v>
       </c>
-      <c r="AA30" s="6">
+      <c r="AA30" s="5">
         <f t="shared" si="2"/>
         <v>0.8807567557890067</v>
       </c>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="10">
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="8">
         <v>0.05</v>
       </c>
-      <c r="AE30" s="8" t="str">
+      <c r="AE30" s="7" t="str">
         <f t="shared" ref="AE30:AH30" si="30">C59&amp;" ("&amp;X59&amp;")"</f>
         <v>0.213 (75.20%)</v>
       </c>
-      <c r="AF30" s="8" t="str">
+      <c r="AF30" s="7" t="str">
         <f t="shared" si="30"/>
         <v>0.176 (80.26%)</v>
       </c>
-      <c r="AG30" s="8" t="str">
+      <c r="AG30" s="7" t="str">
         <f t="shared" si="30"/>
         <v>0.119 (85.42%)</v>
       </c>
-      <c r="AH30" s="8" t="str">
+      <c r="AH30" s="7" t="str">
         <f t="shared" si="30"/>
         <v>0.088 (88.08%)</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2">
         <v>0.1</v>
       </c>
@@ -6180,24 +6184,24 @@
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="2">
         <v>0.1</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>2.1998326457013301E-4</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>3.5275322569878098E-4</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>7.6050820734473797E-4</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <v>1.28360727763494E-3</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="2">
         <v>0.1</v>
       </c>
@@ -6213,116 +6217,122 @@
       <c r="T31" s="3">
         <v>0.73334752449810903</v>
       </c>
-      <c r="V31" s="4"/>
+      <c r="V31" s="9"/>
       <c r="W31" s="2">
         <v>0.1</v>
       </c>
-      <c r="X31" s="6">
+      <c r="X31" s="5">
         <f t="shared" si="4"/>
         <v>0.79439279043012467</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="5">
         <f t="shared" si="0"/>
         <v>0.84097115341914774</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="Z31" s="5">
         <f t="shared" si="1"/>
         <v>0.88555615886586436</v>
       </c>
-      <c r="AA31" s="6">
+      <c r="AA31" s="5">
         <f t="shared" si="2"/>
         <v>0.90563818968727094</v>
       </c>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="10">
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="8">
         <v>0.1</v>
       </c>
-      <c r="AE31" s="8" t="str">
+      <c r="AE31" s="7" t="str">
         <f t="shared" ref="AE31:AH31" si="31">C60&amp;" ("&amp;X60&amp;")"</f>
         <v>0.183 (79.44%)</v>
       </c>
-      <c r="AF31" s="8" t="str">
+      <c r="AF31" s="7" t="str">
         <f t="shared" si="31"/>
         <v>0.138 (84.10%)</v>
       </c>
-      <c r="AG31" s="8" t="str">
+      <c r="AG31" s="7" t="str">
         <f t="shared" si="31"/>
         <v>0.0936 (88.56%)</v>
       </c>
-      <c r="AH31" s="8" t="str">
+      <c r="AH31" s="7" t="str">
         <f t="shared" si="31"/>
         <v>0.0692 (90.56%)</v>
       </c>
     </row>
     <row r="33" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>1.46E-2</v>
       </c>
-      <c r="X33" s="7" t="s">
+      <c r="X33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Y33" s="7" t="s">
+      <c r="Y33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Z33" s="7" t="s">
+      <c r="Z33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AA33" s="7" t="s">
+      <c r="AA33" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>9.5399999999999999E-3</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="X34" s="7" t="s">
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="Q34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="X34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Y34" s="7" t="s">
+      <c r="Y34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Z34" s="7" t="s">
+      <c r="Z34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AA34" s="7" t="s">
+      <c r="AA34" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>1.01E-2</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>5.5199999999999997E-3</v>
       </c>
       <c r="J35">
@@ -6337,815 +6347,963 @@
       <c r="M35">
         <v>100</v>
       </c>
-      <c r="X35" s="7" t="s">
+      <c r="Q35">
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <v>20</v>
+      </c>
+      <c r="S35">
+        <v>50</v>
+      </c>
+      <c r="T35">
+        <v>100</v>
+      </c>
+      <c r="X35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Y35" s="7" t="s">
+      <c r="Y35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z35" s="7" t="s">
+      <c r="Z35" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AA35" s="7" t="s">
+      <c r="AA35" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>6.1900000000000002E-3</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>3.5500000000000002E-3</v>
       </c>
       <c r="I36" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <f>AVERAGE(J4:J7)</f>
         <v>7.9702420513815975E-3</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <f t="shared" ref="K36:M36" si="32">AVERAGE(K4:K7)</f>
         <v>1.0869805147684977E-2</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <f t="shared" si="32"/>
         <v>1.6432384428440267E-2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="4">
         <f t="shared" si="32"/>
         <v>2.2159160584229502E-2</v>
       </c>
-      <c r="X36" s="7" t="s">
+      <c r="P36" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q36">
+        <f>AVERAGE(Q4:Q7)</f>
+        <v>0.47507021303153829</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ref="R36:T36" si="33">AVERAGE(R4:R7)</f>
+        <v>0.37177384122493079</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="33"/>
+        <v>0.24871546559041324</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="33"/>
+        <v>0.17849278626112924</v>
+      </c>
+      <c r="X36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Y36" s="7" t="s">
+      <c r="Y36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Z36" s="7" t="s">
+      <c r="Z36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA36" s="7" t="s">
+      <c r="AA36" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="I37" t="s">
         <v>148</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <f>AVERAGE(J8:J11)</f>
         <v>5.3711138286830183E-3</v>
       </c>
-      <c r="K37" s="5">
-        <f t="shared" ref="K37:M37" si="33">AVERAGE(K8:K11)</f>
+      <c r="K37" s="4">
+        <f t="shared" ref="K37:M37" si="34">AVERAGE(K8:K11)</f>
         <v>6.9146390866017277E-3</v>
       </c>
-      <c r="L37" s="5">
-        <f t="shared" si="33"/>
+      <c r="L37" s="4">
+        <f t="shared" si="34"/>
         <v>1.1012838455676327E-2</v>
       </c>
-      <c r="M37" s="5">
-        <f t="shared" si="33"/>
+      <c r="M37" s="4">
+        <f t="shared" si="34"/>
         <v>1.5126962149287914E-2</v>
       </c>
-      <c r="X37" s="7" t="s">
+      <c r="P37" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q37">
+        <f>AVERAGE(Q8:Q11)</f>
+        <v>0.45158577431971325</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ref="R37:T37" si="35">AVERAGE(R8:R11)</f>
+        <v>0.35053673961887277</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="35"/>
+        <v>0.24613256220354451</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="35"/>
+        <v>0.17902838166763702</v>
+      </c>
+      <c r="X37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y37" s="7" t="s">
+      <c r="Y37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z37" s="7" t="s">
+      <c r="Z37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AA37" s="7" t="s">
+      <c r="AA37" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="I38" t="s">
         <v>165</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <f>AVERAGE(J12:J15)</f>
         <v>3.3129727605761671E-3</v>
       </c>
-      <c r="K38" s="5">
-        <f t="shared" ref="K38:M38" si="34">AVERAGE(K12:K15)</f>
+      <c r="K38" s="4">
+        <f t="shared" ref="K38:M38" si="36">AVERAGE(K12:K15)</f>
         <v>4.8988696042785197E-3</v>
       </c>
-      <c r="L38" s="5">
-        <f t="shared" si="34"/>
+      <c r="L38" s="4">
+        <f t="shared" si="36"/>
         <v>8.3791441148842825E-3</v>
       </c>
-      <c r="M38" s="5">
-        <f t="shared" si="34"/>
+      <c r="M38" s="4">
+        <f t="shared" si="36"/>
         <v>1.1331669028336471E-2</v>
       </c>
-      <c r="X38" s="7" t="s">
+      <c r="P38" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q38">
+        <f>AVERAGE(Q12:Q15)</f>
+        <v>0.57249365482233472</v>
+      </c>
+      <c r="R38">
+        <f t="shared" ref="R38:T38" si="37">AVERAGE(R12:R15)</f>
+        <v>0.48119838041940544</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="37"/>
+        <v>0.37198338811683396</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="37"/>
+        <v>0.28178354102521375</v>
+      </c>
+      <c r="X38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Y38" s="7" t="s">
+      <c r="Y38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Z38" s="7" t="s">
+      <c r="Z38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AA38" s="7" t="s">
+      <c r="AA38" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>1.21E-2</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>7.4700000000000001E-3</v>
       </c>
       <c r="I39" t="s">
         <v>182</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <f>AVERAGE(J16:J19)</f>
         <v>8.0518055528017705E-4</v>
       </c>
-      <c r="K39" s="5">
-        <f t="shared" ref="K39:M39" si="35">AVERAGE(K16:K19)</f>
+      <c r="K39" s="4">
+        <f t="shared" ref="K39:M39" si="38">AVERAGE(K16:K19)</f>
         <v>1.6876079760919347E-3</v>
       </c>
-      <c r="L39" s="5">
-        <f t="shared" si="35"/>
+      <c r="L39" s="4">
+        <f t="shared" si="38"/>
         <v>2.9159328002727122E-3</v>
       </c>
-      <c r="M39" s="5">
-        <f t="shared" si="35"/>
+      <c r="M39" s="4">
+        <f t="shared" si="38"/>
         <v>4.0039898976945596E-3</v>
       </c>
-      <c r="X39" s="7" t="s">
+      <c r="P39" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q39">
+        <f>AVERAGE(Q16:Q19)</f>
+        <v>0.85868014225043676</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ref="R39:T39" si="39">AVERAGE(R16:R19)</f>
+        <v>0.69039387059324908</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="39"/>
+        <v>0.55701274081911523</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="39"/>
+        <v>0.44966638010845078</v>
+      </c>
+      <c r="X39" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Y39" s="7" t="s">
+      <c r="Y39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Z39" s="7" t="s">
+      <c r="Z39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AA39" s="7" t="s">
+      <c r="AA39" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>2.87E-2</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="I40" t="s">
         <v>199</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <f>AVERAGE(J20:J23)</f>
         <v>5.2822163155614001E-4</v>
       </c>
-      <c r="K40" s="5">
-        <f t="shared" ref="K40:M40" si="36">AVERAGE(K20:K23)</f>
+      <c r="K40" s="4">
+        <f t="shared" ref="K40:M40" si="40">AVERAGE(K20:K23)</f>
         <v>9.1556316084073373E-4</v>
       </c>
-      <c r="L40" s="5">
-        <f t="shared" si="36"/>
+      <c r="L40" s="4">
+        <f t="shared" si="40"/>
         <v>1.5054775023916156E-3</v>
       </c>
-      <c r="M40" s="5">
-        <f t="shared" si="36"/>
+      <c r="M40" s="4">
+        <f t="shared" si="40"/>
         <v>2.4695201923647754E-3</v>
       </c>
-      <c r="X40" s="7" t="s">
+      <c r="P40" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q40">
+        <f>AVERAGE(Q20:Q23)</f>
+        <v>0.46541514946227425</v>
+      </c>
+      <c r="R40">
+        <f t="shared" ref="R40:T40" si="41">AVERAGE(R20:R23)</f>
+        <v>0.37778177661105899</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="41"/>
+        <v>0.26457140740113427</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="41"/>
+        <v>0.20674612583622601</v>
+      </c>
+      <c r="X40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Y40" s="7" t="s">
+      <c r="Y40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Z40" s="7" t="s">
+      <c r="Z40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AA40" s="7" t="s">
+      <c r="AA40" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>0.122</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>2.75E-2</v>
       </c>
       <c r="I41" t="s">
         <v>216</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
         <f>AVERAGE(J24:J27)</f>
         <v>1.0756569823025391E-3</v>
       </c>
-      <c r="K41" s="5">
-        <f t="shared" ref="K41:M41" si="37">AVERAGE(K24:K27)</f>
+      <c r="K41" s="4">
+        <f t="shared" ref="K41:M41" si="42">AVERAGE(K24:K27)</f>
         <v>1.9501045254327529E-3</v>
       </c>
-      <c r="L41" s="5">
-        <f t="shared" si="37"/>
+      <c r="L41" s="4">
+        <f t="shared" si="42"/>
         <v>4.0760688091354422E-3</v>
       </c>
-      <c r="M41" s="5">
-        <f t="shared" si="37"/>
+      <c r="M41" s="4">
+        <f t="shared" si="42"/>
         <v>8.4056670424495911E-3</v>
       </c>
-      <c r="X41" s="7" t="s">
+      <c r="P41" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q41">
+        <f>AVERAGE(Q24:Q27)</f>
+        <v>8.4150591945879177E-2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="R41:T41" si="43">AVERAGE(R24:R27)</f>
+        <v>6.7306989075284471E-2</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="43"/>
+        <v>4.866435068793705E-2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="43"/>
+        <v>3.7243166339077552E-2</v>
+      </c>
+      <c r="X41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y41" s="7" t="s">
+      <c r="Y41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Z41" s="7" t="s">
+      <c r="Z41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA41" s="7" t="s">
+      <c r="AA41" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>5.57E-2</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="I42" t="s">
         <v>233</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <f>AVERAGE(J28:J31)</f>
         <v>1.1511125208321348E-4</v>
       </c>
-      <c r="K42" s="5">
-        <f t="shared" ref="K42:M42" si="38">AVERAGE(K28:K31)</f>
+      <c r="K42" s="4">
+        <f t="shared" ref="K42:M42" si="44">AVERAGE(K28:K31)</f>
         <v>1.8373472107422684E-4</v>
       </c>
-      <c r="L42" s="5">
-        <f t="shared" si="38"/>
+      <c r="L42" s="4">
+        <f t="shared" si="44"/>
         <v>3.8021805905741151E-4</v>
       </c>
-      <c r="M42" s="5">
-        <f t="shared" si="38"/>
+      <c r="M42" s="4">
+        <f t="shared" si="44"/>
         <v>6.46343889066646E-4</v>
       </c>
-      <c r="X42" s="7" t="s">
+      <c r="P42" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q42">
+        <f>AVERAGE(Q28:Q31)</f>
+        <v>0.89656292435864482</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42:T42" si="45">AVERAGE(R28:R31)</f>
+        <v>0.87817190883399976</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="45"/>
+        <v>0.81521084890079609</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="45"/>
+        <v>0.73868747018020287</v>
+      </c>
+      <c r="X42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Y42" s="7" t="s">
+      <c r="Y42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Z42" s="7" t="s">
+      <c r="Z42" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AA42" s="7" t="s">
+      <c r="AA42" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>2.01E-2</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>1.18E-2</v>
       </c>
-      <c r="X43" s="7" t="s">
+      <c r="X43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Y43" s="7" t="s">
+      <c r="Y43" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Z43" s="7" t="s">
+      <c r="Z43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AA43" s="7" t="s">
+      <c r="AA43" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>1.34E-2</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>7.9500000000000005E-3</v>
       </c>
-      <c r="X44" s="7" t="s">
+      <c r="X44" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Y44" s="7" t="s">
+      <c r="Y44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z44" s="7" t="s">
+      <c r="Z44" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AA44" s="7" t="s">
+      <c r="AA44" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="X45" s="7" t="s">
+      <c r="X45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Y45" s="7" t="s">
+      <c r="Y45" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="Z45" s="7" t="s">
+      <c r="Z45" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AA45" s="7" t="s">
+      <c r="AA45" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>0.11</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="X46" s="7" t="s">
+      <c r="X46" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Y46" s="7" t="s">
+      <c r="Y46" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Z46" s="7" t="s">
+      <c r="Z46" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AA46" s="7" t="s">
+      <c r="AA46" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <v>2.29E-2</v>
       </c>
-      <c r="X47" s="7" t="s">
+      <c r="X47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Y47" s="7" t="s">
+      <c r="Y47" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="Z47" s="7" t="s">
+      <c r="Z47" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AA47" s="7" t="s">
+      <c r="AA47" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="48" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="X48" s="7" t="s">
+      <c r="X48" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="Y48" s="7" t="s">
+      <c r="Y48" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="Z48" s="7" t="s">
+      <c r="Z48" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AA48" s="7" t="s">
+      <c r="AA48" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>0.193</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>0.14699999999999999</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>8.8300000000000003E-2</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <v>6.3E-2</v>
       </c>
-      <c r="X49" s="7" t="s">
+      <c r="X49" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="Y49" s="7" t="s">
+      <c r="Y49" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Z49" s="7" t="s">
+      <c r="Z49" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AA49" s="7" t="s">
+      <c r="AA49" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="50" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>0.17199999999999999</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>0.114</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <v>5.11E-2</v>
       </c>
-      <c r="X50" s="7" t="s">
+      <c r="X50" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Y50" s="7" t="s">
+      <c r="Y50" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Z50" s="7" t="s">
+      <c r="Z50" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AA50" s="7" t="s">
+      <c r="AA50" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>0.123</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="X51" s="7" t="s">
+      <c r="X51" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="Y51" s="7" t="s">
+      <c r="Y51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="Z51" s="7" t="s">
+      <c r="Z51" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AA51" s="7" t="s">
+      <c r="AA51" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>0.107</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>4.36E-2</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="X52" s="7" t="s">
+      <c r="X52" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="Y52" s="7" t="s">
+      <c r="Y52" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="Z52" s="7" t="s">
+      <c r="Z52" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AA52" s="7" t="s">
+      <c r="AA52" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>2.01E-2</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>1.46E-2</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="X53" s="7" t="s">
+      <c r="X53" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="Y53" s="7" t="s">
+      <c r="Y53" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Z53" s="7" t="s">
+      <c r="Z53" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AA53" s="7" t="s">
+      <c r="AA53" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="54" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>2.18E-2</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <v>8.6499999999999997E-3</v>
       </c>
-      <c r="X54" s="7" t="s">
+      <c r="X54" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Y54" s="7" t="s">
+      <c r="Y54" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="Z54" s="7" t="s">
+      <c r="Z54" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AA54" s="7" t="s">
+      <c r="AA54" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="55" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>1.66E-2</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>1.26E-2</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>8.7100000000000007E-3</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>6.13E-3</v>
       </c>
-      <c r="X55" s="7" t="s">
+      <c r="X55" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="Y55" s="7" t="s">
+      <c r="Y55" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="Z55" s="7" t="s">
+      <c r="Z55" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="AA55" s="7" t="s">
+      <c r="AA55" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>1.01E-2</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>6.5300000000000002E-3</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <v>4.5300000000000002E-3</v>
       </c>
-      <c r="X56" s="7" t="s">
+      <c r="X56" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="Y56" s="7" t="s">
+      <c r="Y56" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="Z56" s="7" t="s">
+      <c r="Z56" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="AA56" s="7" t="s">
+      <c r="AA56" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="57" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>0.374</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>0.27200000000000002</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <v>0.192</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <v>0.151</v>
       </c>
-      <c r="X57" s="7" t="s">
+      <c r="X57" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="Y57" s="7" t="s">
+      <c r="Y57" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="Z57" s="7" t="s">
+      <c r="Z57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AA57" s="7" t="s">
+      <c r="AA57" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="58" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>0.28799999999999998</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>0.224</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <v>0.158</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <v>0.121</v>
       </c>
-      <c r="X58" s="7" t="s">
+      <c r="X58" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Y58" s="7" t="s">
+      <c r="Y58" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Z58" s="7" t="s">
+      <c r="Z58" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AA58" s="7" t="s">
+      <c r="AA58" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="59" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>0.21299999999999999</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>0.11899999999999999</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="X59" s="7" t="s">
+      <c r="X59" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="Y59" s="7" t="s">
+      <c r="Y59" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="Z59" s="7" t="s">
+      <c r="Z59" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AA59" s="7" t="s">
+      <c r="AA59" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="60" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>0.183</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>0.13800000000000001</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="X60" s="7" t="s">
+      <c r="X60" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Y60" s="7" t="s">
+      <c r="Y60" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="Z60" s="7" t="s">
+      <c r="Z60" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AA60" s="7" t="s">
+      <c r="AA60" s="6" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AC16:AC19"/>
-    <mergeCell ref="AC20:AC23"/>
-    <mergeCell ref="AC24:AC27"/>
-    <mergeCell ref="AC28:AC31"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="X2:AA2"/>
+  <mergeCells count="42">
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="H24:H27"/>
     <mergeCell ref="AC4:AC7"/>
     <mergeCell ref="AC8:AC11"/>
     <mergeCell ref="O28:O31"/>
@@ -7162,23 +7320,22 @@
     <mergeCell ref="O16:O19"/>
     <mergeCell ref="O20:O23"/>
     <mergeCell ref="O24:O27"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AC16:AC19"/>
+    <mergeCell ref="AC20:AC23"/>
+    <mergeCell ref="AC24:AC27"/>
+    <mergeCell ref="AC28:AC31"/>
+    <mergeCell ref="Q34:T34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7187,7 +7344,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7529,6 +7686,9 @@
       <c r="F13" t="s">
         <v>173</v>
       </c>
+      <c r="H13" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14">
@@ -7546,6 +7706,9 @@
       <c r="F14" t="s">
         <v>177</v>
       </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15">
@@ -7563,6 +7726,18 @@
       <c r="F15" t="s">
         <v>181</v>
       </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -7583,8 +7758,23 @@
       <c r="F16" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.47507021303153829</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.37177384122493079</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.24871546559041324</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.17849278626112924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>0.02</v>
       </c>
@@ -7600,8 +7790,23 @@
       <c r="F17" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.45158577431971325</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.35053673961887277</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.24613256220354451</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.17902838166763702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0.05</v>
       </c>
@@ -7617,8 +7822,23 @@
       <c r="F18" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.57249365482233472</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.48119838041940544</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.37198338811683396</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.28178354102521375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0.1</v>
       </c>
@@ -7634,8 +7854,23 @@
       <c r="F19" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.85868014225043676</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.69039387059324908</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.55701274081911523</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.44966638010845078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -7654,8 +7889,23 @@
       <c r="F20" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.46541514946227425</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.37778177661105899</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.26457140740113427</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.20674612583622601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0.02</v>
       </c>
@@ -7671,8 +7921,23 @@
       <c r="F21" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8.4150591945879177E-2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>6.7306989075284471E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>4.866435068793705E-2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3.7243166339077552E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0.05</v>
       </c>
@@ -7688,8 +7953,23 @@
       <c r="F22" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>233</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.89656292435864482</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.87817190883399976</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.81521084890079609</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.73868747018020287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>0.1</v>
       </c>
@@ -7706,7 +7986,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>216</v>
       </c>
@@ -7726,7 +8006,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>0.02</v>
       </c>
@@ -7743,7 +8023,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>0.05</v>
       </c>
@@ -7760,7 +8040,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>0.1</v>
       </c>
@@ -7777,7 +8057,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -7797,7 +8077,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>0.02</v>
       </c>
@@ -7814,7 +8094,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>0.05</v>
       </c>
@@ -7831,7 +8111,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>0.1</v>
       </c>
